--- a/realme/AUGUST/All Details/12.08.2021/realme Bank Statement August-2021.xlsx
+++ b/realme/AUGUST/All Details/12.08.2021/realme Bank Statement August-2021.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -339,7 +339,7 @@
     <t>Date: 12.08.2021</t>
   </si>
   <si>
-    <t>bKash Jafor</t>
+    <t>bKash Jafor(-)</t>
   </si>
 </sst>
 </file>
@@ -2310,12 +2310,39 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2343,12 +2370,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2361,18 +2382,6 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2455,15 +2464,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3053,21 +3053,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="B1" s="233" t="s">
+      <c r="B1" s="236" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="237" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="16" t="s">
@@ -4153,8 +4153,8 @@
   <dimension ref="A1:Z320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4167,73 +4167,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="244" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
-      <c r="R1" s="235"/>
-      <c r="S1" s="235"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="244"/>
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="244"/>
     </row>
     <row r="2" spans="1:26" s="125" customFormat="1" ht="18">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
-      <c r="Q2" s="236"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="236"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
     </row>
     <row r="3" spans="1:26" s="126" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="246" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="238"/>
-      <c r="S3" s="239"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="248"/>
       <c r="U3" s="50"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4242,58 +4242,58 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" s="128" customFormat="1">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="249" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="251" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="244" t="s">
+      <c r="D4" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="244" t="s">
+      <c r="E4" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="244" t="s">
+      <c r="F4" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="244" t="s">
+      <c r="G4" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="244" t="s">
+      <c r="H4" s="238" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="244" t="s">
+      <c r="I4" s="238" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="244" t="s">
+      <c r="J4" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="244" t="s">
+      <c r="K4" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="244" t="s">
+      <c r="L4" s="238" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="244" t="s">
+      <c r="M4" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="244" t="s">
+      <c r="N4" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="250" t="s">
+      <c r="O4" s="240" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="252" t="s">
+      <c r="P4" s="242" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="248" t="s">
+      <c r="Q4" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="246" t="s">
+      <c r="R4" s="253" t="s">
         <v>43</v>
       </c>
       <c r="S4" s="127" t="s">
@@ -4306,24 +4306,24 @@
       <c r="Y4" s="130"/>
     </row>
     <row r="5" spans="1:26" s="128" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="241"/>
-      <c r="B5" s="243"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
-      <c r="K5" s="245"/>
-      <c r="L5" s="245"/>
-      <c r="M5" s="245"/>
-      <c r="N5" s="245"/>
-      <c r="O5" s="251"/>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="247"/>
+      <c r="A5" s="250"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239"/>
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="241"/>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="256"/>
+      <c r="R5" s="254"/>
       <c r="S5" s="132" t="s">
         <v>44</v>
       </c>
@@ -4733,17 +4733,31 @@
       <c r="Y15" s="26"/>
     </row>
     <row r="16" spans="1:26" s="9" customFormat="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="145"/>
+      <c r="A16" s="136" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="144">
+        <v>800</v>
+      </c>
+      <c r="C16" s="137">
+        <v>470</v>
+      </c>
+      <c r="D16" s="145">
+        <v>2050</v>
+      </c>
       <c r="E16" s="145"/>
       <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
+      <c r="G16" s="145">
+        <v>70</v>
+      </c>
       <c r="H16" s="145"/>
       <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
+      <c r="J16" s="145">
+        <v>30</v>
+      </c>
+      <c r="K16" s="145">
+        <v>160</v>
+      </c>
       <c r="L16" s="145"/>
       <c r="M16" s="145"/>
       <c r="N16" s="177"/>
@@ -4753,7 +4767,7 @@
       <c r="R16" s="147"/>
       <c r="S16" s="141">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3580</v>
       </c>
       <c r="T16" s="142"/>
       <c r="U16" s="4"/>
@@ -5307,15 +5321,15 @@
       </c>
       <c r="B37" s="162">
         <f>SUM(B6:B36)</f>
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="C37" s="163">
         <f t="shared" ref="C37:R37" si="1">SUM(C6:C36)</f>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="D37" s="163">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>3300</v>
       </c>
       <c r="E37" s="163">
         <f t="shared" si="1"/>
@@ -5327,7 +5341,7 @@
       </c>
       <c r="G37" s="163">
         <f>SUM(G6:G36)</f>
-        <v>990</v>
+        <v>1060</v>
       </c>
       <c r="H37" s="163">
         <f t="shared" si="1"/>
@@ -5339,11 +5353,11 @@
       </c>
       <c r="J37" s="163">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K37" s="163">
         <f t="shared" si="1"/>
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="L37" s="163">
         <f t="shared" si="1"/>
@@ -5375,7 +5389,7 @@
       </c>
       <c r="S37" s="165">
         <f>SUM(S6:S36)</f>
-        <v>10050</v>
+        <v>13630</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -7380,11 +7394,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7401,6 +7410,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7440,14 +7454,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="263" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
       <c r="L1" s="40"/>
       <c r="M1" s="182"/>
       <c r="N1" s="182"/>
@@ -7500,14 +7514,14 @@
       <c r="BI1" s="182"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="264" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
       <c r="L2" s="40"/>
       <c r="M2" s="182"/>
       <c r="N2" s="182"/>
@@ -7560,14 +7574,14 @@
       <c r="BI2" s="182"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
       <c r="K3" s="182"/>
       <c r="L3" s="40"/>
       <c r="M3" s="182"/>
@@ -9743,12 +9757,12 @@
       <c r="BI34" s="182"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="263" t="s">
+      <c r="A35" s="266" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="264"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="265"/>
+      <c r="B35" s="267"/>
+      <c r="C35" s="267"/>
+      <c r="D35" s="268"/>
       <c r="E35" s="50"/>
       <c r="F35" s="45"/>
       <c r="G35" s="62"/>
@@ -9808,12 +9822,12 @@
       <c r="BI35" s="182"/>
     </row>
     <row r="36" spans="1:61">
-      <c r="A36" s="267" t="s">
+      <c r="A36" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="268"/>
-      <c r="C36" s="268"/>
-      <c r="D36" s="269"/>
+      <c r="B36" s="271"/>
+      <c r="C36" s="271"/>
+      <c r="D36" s="272"/>
       <c r="E36" s="66">
         <f>F33-C113+K136</f>
         <v>0</v>
@@ -10296,13 +10310,13 @@
       <c r="C43" s="45"/>
       <c r="D43" s="41"/>
       <c r="E43" s="50"/>
-      <c r="F43" s="266" t="s">
+      <c r="F43" s="269" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="266"/>
-      <c r="H43" s="266"/>
-      <c r="I43" s="266"/>
-      <c r="J43" s="266"/>
+      <c r="G43" s="269"/>
+      <c r="H43" s="269"/>
+      <c r="I43" s="269"/>
+      <c r="J43" s="269"/>
       <c r="K43" s="74"/>
       <c r="L43" s="42"/>
       <c r="M43" s="182"/>
@@ -11498,10 +11512,10 @@
       <c r="C62" s="79"/>
       <c r="D62" s="86"/>
       <c r="E62" s="55"/>
-      <c r="F62" s="254" t="s">
+      <c r="F62" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="G62" s="254"/>
+      <c r="G62" s="257"/>
       <c r="H62" s="181"/>
       <c r="I62" s="181"/>
       <c r="J62" s="87" t="s">
@@ -14843,10 +14857,10 @@
       <c r="BI112" s="182"/>
     </row>
     <row r="113" spans="1:61">
-      <c r="A113" s="255" t="s">
+      <c r="A113" s="258" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="256"/>
+      <c r="B113" s="259"/>
       <c r="C113" s="102">
         <f>SUM(C37:C112)</f>
         <v>256470</v>
@@ -14978,10 +14992,10 @@
       <c r="BI114" s="182"/>
     </row>
     <row r="115" spans="1:61">
-      <c r="A115" s="257" t="s">
+      <c r="A115" s="260" t="s">
         <v>30</v>
       </c>
-      <c r="B115" s="258"/>
+      <c r="B115" s="261"/>
       <c r="C115" s="107">
         <f>C113+L136</f>
         <v>256470</v>
@@ -16900,8 +16914,8 @@
       <c r="N169" s="185"/>
     </row>
     <row r="170" spans="5:14">
-      <c r="F170" s="259"/>
-      <c r="G170" s="259"/>
+      <c r="F170" s="262"/>
+      <c r="G170" s="262"/>
       <c r="H170" s="182"/>
       <c r="I170" s="53"/>
       <c r="J170" s="40"/>
@@ -17561,7 +17575,7 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17581,35 +17595,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="273" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="272"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="275"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="282" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="281"/>
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="284"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="276" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="274"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="275"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="278"/>
       <c r="F3" s="1"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
@@ -17758,7 +17772,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="174">
-        <v>1018239</v>
+        <v>1014659</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="29"/>
@@ -17821,7 +17835,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="35">
-        <v>10050</v>
+        <v>13630</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="201"/>
@@ -17891,12 +17905,12 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="21.75">
-      <c r="A11" s="282" t="s">
+      <c r="A11" s="233" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="218">
         <f>B6-B10-B9+B7</f>
-        <v>149200</v>
+        <v>145620</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="201" t="s">
@@ -17935,8 +17949,8 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" ht="21.75">
-      <c r="A12" s="283"/>
-      <c r="B12" s="283"/>
+      <c r="A12" s="234"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="33"/>
       <c r="D12" s="201" t="s">
         <v>52</v>
@@ -17974,7 +17988,7 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="21.75">
-      <c r="A13" s="284" t="s">
+      <c r="A13" s="235" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="220">
@@ -18013,7 +18027,7 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="284" t="s">
+      <c r="A14" s="235" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="220">
@@ -18085,7 +18099,7 @@
       </c>
       <c r="B16" s="35">
         <f>B5+B6-B9-B10-B13-B14</f>
-        <v>4949200</v>
+        <v>4945620</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="201" t="s">
@@ -18093,7 +18107,7 @@
       </c>
       <c r="E16" s="36">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>4949200</v>
+        <v>4945620</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="175">
@@ -18156,13 +18170,13 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="22.5">
-      <c r="A18" s="276" t="s">
+      <c r="A18" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="277"/>
-      <c r="C18" s="277"/>
-      <c r="D18" s="277"/>
-      <c r="E18" s="278"/>
+      <c r="B18" s="280"/>
+      <c r="C18" s="280"/>
+      <c r="D18" s="280"/>
+      <c r="E18" s="281"/>
       <c r="F18" s="1"/>
       <c r="G18" s="8"/>
       <c r="H18" s="196"/>
